--- a/src/resources/dataTest.xlsx
+++ b/src/resources/dataTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Create Plan" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -719,9 +719,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
